--- a/sampleExcels/PhdAwardedFaculty.xlsx
+++ b/sampleExcels/PhdAwardedFaculty.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Scholar Name</t>
   </si>
@@ -60,13 +60,28 @@
     <t>Awarded</t>
   </si>
   <si>
-    <t>aaa</t>
-  </si>
-  <si>
     <t>2019-20</t>
   </si>
   <si>
     <t>2022-23</t>
+  </si>
+  <si>
+    <t>Date of Registration (RAC)</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Ph.D.</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>OBC</t>
   </si>
 </sst>
 </file>
@@ -107,9 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,26 +427,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,25 +459,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -470,48 +497,57 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>36482</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>2020</v>
+      </c>
+      <c r="K2">
+        <v>2020</v>
+      </c>
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>2020</v>
-      </c>
-      <c r="H2">
-        <v>2020</v>
-      </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
@@ -521,25 +557,32 @@
       <c r="A18" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E2:E1002">
-      <formula1>"Awarded,Submitted"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="E1">
-      <formula1>""</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="G1:H1002">
+  <dataValidations count="7">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="J1:K1002">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
+      <formula1>"1994-95,1995-96,1996-97,1997-98,1998-99,1999-20,2000-01,2001-02,2002-03,2003-04,2004-05,2005-06,2006-07,2007-08,2008-09,2009-10,2010-11,2011-12,2012-13,2013-14,2014-15,2015-16,2016-17,2017-18,2018-19,2019-20,2020-21,2021-22,2022-23,"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>35690</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
-      <formula1>"1994-95,1995-96,1996-97,1997-98,1998-99,1999-20,2000-01,2001-02,2002-03,2003-04,2004-05,2005-06,2006-07,2007-08,2008-09,2009-10,2010-11,2011-12,2012-13,2013-14,2014-15,2015-16,2016-17,2017-18,2018-19,2019-20,2020-21,2021-22,2022-23,"</formula1>
+      <formula1>"Male, Female, Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"Ph.D., M.Phil, PG Dissertation"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"Open, SC, ST,VJ / NT(A),VJ / NT(B),VJ / NT( C),VJ / NT(D),SBC,OBC,PH,EWS,Minority,NRI,Foreign National"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>"Awarded,Submitted,Ongoing"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
